--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.12766788108987</v>
+        <v>24.871494</v>
       </c>
       <c r="H2">
-        <v>8.12766788108987</v>
+        <v>74.61448200000001</v>
       </c>
       <c r="I2">
-        <v>0.2900416094775399</v>
+        <v>0.5523409677800469</v>
       </c>
       <c r="J2">
-        <v>0.2900416094775399</v>
+        <v>0.552340967780047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.03750236362781</v>
+        <v>20.186605</v>
       </c>
       <c r="N2">
-        <v>7.03750236362781</v>
+        <v>60.559815</v>
       </c>
       <c r="O2">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028334</v>
       </c>
       <c r="P2">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028335</v>
       </c>
       <c r="Q2">
-        <v>57.19848192395179</v>
+        <v>502.07102513787</v>
       </c>
       <c r="R2">
-        <v>57.19848192395179</v>
+        <v>4518.639226240831</v>
       </c>
       <c r="S2">
-        <v>0.1042219099184005</v>
+        <v>0.3388421734288971</v>
       </c>
       <c r="T2">
-        <v>0.1042219099184005</v>
+        <v>0.3388421734288972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.12766788108987</v>
+        <v>24.871494</v>
       </c>
       <c r="H3">
-        <v>8.12766788108987</v>
+        <v>74.61448200000001</v>
       </c>
       <c r="I3">
-        <v>0.2900416094775399</v>
+        <v>0.5523409677800469</v>
       </c>
       <c r="J3">
-        <v>0.2900416094775399</v>
+        <v>0.552340967780047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.68528649540889</v>
+        <v>6.772365</v>
       </c>
       <c r="N3">
-        <v>6.68528649540889</v>
+        <v>20.317095</v>
       </c>
       <c r="O3">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="P3">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="Q3">
-        <v>54.3357883246187</v>
+        <v>168.43883546331</v>
       </c>
       <c r="R3">
-        <v>54.3357883246187</v>
+        <v>1515.94951916979</v>
       </c>
       <c r="S3">
-        <v>0.09900576808389595</v>
+        <v>0.113677504258581</v>
       </c>
       <c r="T3">
-        <v>0.09900576808389595</v>
+        <v>0.113677504258581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.12766788108987</v>
+        <v>24.871494</v>
       </c>
       <c r="H4">
-        <v>8.12766788108987</v>
+        <v>74.61448200000001</v>
       </c>
       <c r="I4">
-        <v>0.2900416094775399</v>
+        <v>0.5523409677800469</v>
       </c>
       <c r="J4">
-        <v>0.2900416094775399</v>
+        <v>0.552340967780047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86204233285677</v>
+        <v>5.946877666666667</v>
       </c>
       <c r="N4">
-        <v>5.86204233285677</v>
+        <v>17.840633</v>
       </c>
       <c r="O4">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="P4">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="Q4">
-        <v>47.64473318634911</v>
+        <v>147.907732205234</v>
       </c>
       <c r="R4">
-        <v>47.64473318634911</v>
+        <v>1331.169589847106</v>
       </c>
       <c r="S4">
-        <v>0.08681393147524344</v>
+        <v>0.09982129009256888</v>
       </c>
       <c r="T4">
-        <v>0.08681393147524344</v>
+        <v>0.0998212900925689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.66108205059016</v>
+        <v>6.727847</v>
       </c>
       <c r="H5">
-        <v>6.66108205059016</v>
+        <v>20.183541</v>
       </c>
       <c r="I5">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="J5">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.03750236362781</v>
+        <v>20.186605</v>
       </c>
       <c r="N5">
-        <v>7.03750236362781</v>
+        <v>60.559815</v>
       </c>
       <c r="O5">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028334</v>
       </c>
       <c r="P5">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028335</v>
       </c>
       <c r="Q5">
-        <v>46.87738067534703</v>
+        <v>135.812389889435</v>
       </c>
       <c r="R5">
-        <v>46.87738067534703</v>
+        <v>1222.311509004915</v>
       </c>
       <c r="S5">
-        <v>0.08541573100580357</v>
+        <v>0.09165827754364433</v>
       </c>
       <c r="T5">
-        <v>0.08541573100580357</v>
+        <v>0.09165827754364435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.66108205059016</v>
+        <v>6.727847</v>
       </c>
       <c r="H6">
-        <v>6.66108205059016</v>
+        <v>20.183541</v>
       </c>
       <c r="I6">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="J6">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.68528649540889</v>
+        <v>6.772365</v>
       </c>
       <c r="N6">
-        <v>6.68528649540889</v>
+        <v>20.317095</v>
       </c>
       <c r="O6">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="P6">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="Q6">
-        <v>44.53124187762096</v>
+        <v>45.563435548155</v>
       </c>
       <c r="R6">
-        <v>44.53124187762096</v>
+        <v>410.0709199333949</v>
       </c>
       <c r="S6">
-        <v>0.08114080869654069</v>
+        <v>0.03075025794564578</v>
       </c>
       <c r="T6">
-        <v>0.08114080869654069</v>
+        <v>0.03075025794564578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.66108205059016</v>
+        <v>6.727847</v>
       </c>
       <c r="H7">
-        <v>6.66108205059016</v>
+        <v>20.183541</v>
       </c>
       <c r="I7">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="J7">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.86204233285677</v>
+        <v>5.946877666666667</v>
       </c>
       <c r="N7">
-        <v>5.86204233285677</v>
+        <v>17.840633</v>
       </c>
       <c r="O7">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="P7">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="Q7">
-        <v>39.0475449631919</v>
+        <v>40.00968306905033</v>
       </c>
       <c r="R7">
-        <v>39.0475449631919</v>
+        <v>360.087147621453</v>
       </c>
       <c r="S7">
-        <v>0.07114891124381981</v>
+        <v>0.02700209191636897</v>
       </c>
       <c r="T7">
-        <v>0.07114891124381981</v>
+        <v>0.02700209191636897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.2336703539144</v>
+        <v>13.429899</v>
       </c>
       <c r="H8">
-        <v>13.2336703539144</v>
+        <v>40.289697</v>
       </c>
       <c r="I8">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="J8">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.03750236362781</v>
+        <v>20.186605</v>
       </c>
       <c r="N8">
-        <v>7.03750236362781</v>
+        <v>60.559815</v>
       </c>
       <c r="O8">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028334</v>
       </c>
       <c r="P8">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028335</v>
       </c>
       <c r="Q8">
-        <v>93.13198639514385</v>
+        <v>271.104066302895</v>
       </c>
       <c r="R8">
-        <v>93.13198639514385</v>
+        <v>2439.936596726055</v>
       </c>
       <c r="S8">
-        <v>0.1696966977113398</v>
+        <v>0.182965131330292</v>
       </c>
       <c r="T8">
-        <v>0.1696966977113398</v>
+        <v>0.1829651313302921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.2336703539144</v>
+        <v>13.429899</v>
       </c>
       <c r="H9">
-        <v>13.2336703539144</v>
+        <v>40.289697</v>
       </c>
       <c r="I9">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="J9">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.68528649540889</v>
+        <v>6.772365</v>
       </c>
       <c r="N9">
-        <v>6.68528649540889</v>
+        <v>20.317095</v>
       </c>
       <c r="O9">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="P9">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="Q9">
-        <v>88.47087770171693</v>
+        <v>90.95217794113501</v>
       </c>
       <c r="R9">
-        <v>88.47087770171693</v>
+        <v>818.569601470215</v>
       </c>
       <c r="S9">
-        <v>0.1612036462521753</v>
+        <v>0.0613826174159386</v>
       </c>
       <c r="T9">
-        <v>0.1612036462521753</v>
+        <v>0.06138261741593862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2336703539144</v>
+        <v>13.429899</v>
       </c>
       <c r="H10">
-        <v>13.2336703539144</v>
+        <v>40.289697</v>
       </c>
       <c r="I10">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="J10">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86204233285677</v>
+        <v>5.946877666666667</v>
       </c>
       <c r="N10">
-        <v>5.86204233285677</v>
+        <v>17.840633</v>
       </c>
       <c r="O10">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="P10">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="Q10">
-        <v>77.57633583371785</v>
+        <v>79.86596642868901</v>
       </c>
       <c r="R10">
-        <v>77.57633583371785</v>
+        <v>718.7936978582011</v>
       </c>
       <c r="S10">
-        <v>0.141352595612781</v>
+        <v>0.05390065606806332</v>
       </c>
       <c r="T10">
-        <v>0.141352595612781</v>
+        <v>0.05390065606806334</v>
       </c>
     </row>
   </sheetData>
